--- a/StructureDefinition-AustrianRepresentationOfAddress.xlsx
+++ b/StructureDefinition-AustrianRepresentationOfAddress.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$21</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="189">
   <si>
     <t>Path</t>
   </si>
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-at-addr-1:If the extension for street name is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetName').empty() or $this.hasValue())}at-addr-2:If the extension for street number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-houseNumber').empty() or $this.hasValue())}at-addr-3:If the extensions for floor/door number or additional information are used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-additionalLocator').empty() or $this.hasValue())}</t>
+at-addr-1:If the extension for street name is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetName').empty() or $this.hasValue())}at-addr-2:If the extension for street number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-houseNumber').empty() or $this.hasValue())}at-addr-3:If the extension for floor/door number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-additionalLocator').empty() or $this.hasValue())}</t>
   </si>
   <si>
     <t>XAD</t>
@@ -411,6 +411,22 @@
   </si>
   <si>
     <t>ADXP[partType=ADL]</t>
+  </si>
+  <si>
+    <t>additionalInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/AustrianAddressAdditionalInformation}
+</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Additional information about the street address</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Address.line.value</t>
@@ -735,7 +751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -745,7 +761,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.79296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2232,9 +2248,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2255,13 +2273,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2285,7 +2303,7 @@
         <v>40</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>40</v>
@@ -2312,25 +2330,25 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2345,7 +2363,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2361,16 +2379,16 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2385,43 +2403,43 @@
         <v>40</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2433,35 +2451,35 @@
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -2476,14 +2494,12 @@
         <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2496,7 +2512,7 @@
         <v>40</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>40</v>
@@ -2532,7 +2548,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2547,32 +2563,32 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -2587,12 +2603,14 @@
         <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2605,7 +2623,7 @@
         <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>40</v>
@@ -2641,7 +2659,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2656,25 +2674,25 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AL17" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2696,10 +2714,10 @@
         <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2714,7 +2732,7 @@
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>40</v>
@@ -2750,7 +2768,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2765,25 +2783,25 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2805,14 +2823,12 @@
         <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -2825,7 +2841,7 @@
         <v>40</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>40</v>
@@ -2861,7 +2877,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2876,21 +2892,21 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2901,7 +2917,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -2913,18 +2929,18 @@
         <v>69</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -2936,7 +2952,7 @@
         <v>40</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>40</v>
@@ -2972,7 +2988,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -2987,20 +3003,131 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="K21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM20">
+  <autoFilter ref="A1:AM21">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3010,7 +3137,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI19">
+  <conditionalFormatting sqref="A2:AI20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
